--- a/Intern Project/World_Poverty_Analysis/Custom Data.xlsx
+++ b/Intern Project/World_Poverty_Analysis/Custom Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -67,12 +67,18 @@
   </si>
   <si>
     <t>Life_Expectancy</t>
+  </si>
+  <si>
+    <t>Poverty Suicide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -108,10 +114,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +131,208 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10708573928258967"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.57346981627296589"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4840</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="93089152"/>
+        <c:axId val="93278976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93089152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93278976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93278976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93089152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73333</cdr:x>
+      <cdr:y>0.29861</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95208</cdr:x>
+      <cdr:y>0.63889</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3352800" y="819150"/>
+          <a:ext cx="1000125" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GNI Index</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,9 +642,10 @@
     <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +697,11 @@
       <c r="Q1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1995</v>
       </c>
@@ -509,7 +727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1996</v>
       </c>
@@ -532,7 +750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -555,7 +773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -578,7 +796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -604,7 +822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -636,7 +854,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -670,8 +888,11 @@
       <c r="P8">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="4">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -699,8 +920,11 @@
       <c r="N9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="4">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -728,8 +952,11 @@
       <c r="N10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="4">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -751,8 +978,11 @@
       <c r="N11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="4">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -789,8 +1019,11 @@
       <c r="Q12">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="4">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -815,8 +1048,11 @@
       <c r="P13">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="4">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -838,8 +1074,11 @@
       <c r="K14">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="4">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -867,8 +1106,11 @@
       <c r="N15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="4">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -893,8 +1135,11 @@
       <c r="M16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="4">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>2010</v>
       </c>
@@ -934,8 +1179,11 @@
       <c r="Q17">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="4">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -963,8 +1211,11 @@
       <c r="M18">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="4">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -998,10 +1249,71 @@
       <c r="Q19">
         <v>52</v>
       </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="12:14">
+      <c r="L33" s="3"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="12:14">
+      <c r="L34" s="3"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="12:14">
+      <c r="L35" s="3"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="12:14">
+      <c r="L36" s="3"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
